--- a/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>PSTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,11 +756,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -764,14 +768,14 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -781,16 +785,19 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -798,11 +805,11 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -810,11 +817,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -828,16 +835,19 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -845,11 +855,11 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -857,11 +867,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E12" s="3">
         <v>5600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1124,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>7400</v>
       </c>
       <c r="E17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F17" s="3">
         <v>7200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>6600</v>
       </c>
       <c r="Q17" s="3">
         <v>6600</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8400</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-6600</v>
       </c>
       <c r="Q18" s="3">
         <v>-6600</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-6600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,46 +1254,49 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,46 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7700</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-7500</v>
       </c>
       <c r="E23" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-7500</v>
       </c>
       <c r="E26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-7500</v>
       </c>
       <c r="E27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,93 +1854,99 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-7500</v>
       </c>
       <c r="E33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-7500</v>
       </c>
       <c r="E35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,102 +2139,109 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E41" s="3">
         <v>7300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E42" s="3">
         <v>8800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>13300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>27400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>26700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2158,44 +2251,47 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>1000</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,102 +2337,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E46" s="3">
         <v>19200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>32000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2374,7 +2479,7 @@
         <v>400</v>
       </c>
       <c r="O47" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2382,55 +2487,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,13 +2687,16 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>700</v>
@@ -2585,13 +2705,13 @@
         <v>700</v>
       </c>
       <c r="G52" s="3">
+        <v>700</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>900</v>
       </c>
       <c r="J52" s="3">
         <v>900</v>
@@ -2606,10 +2726,10 @@
         <v>900</v>
       </c>
       <c r="N52" s="3">
+        <v>900</v>
+      </c>
+      <c r="O52" s="3">
         <v>800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1100</v>
       </c>
       <c r="P52" s="3">
         <v>1100</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E54" s="3">
         <v>24900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>31300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>30900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2100</v>
       </c>
       <c r="I57" s="3">
         <v>2100</v>
       </c>
       <c r="J57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,102 +2977,111 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
         <v>5100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>5300</v>
       </c>
       <c r="J59" s="3">
         <v>5300</v>
       </c>
       <c r="K59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E60" s="3">
         <v>7000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>8200</v>
       </c>
       <c r="G60" s="3">
         <v>8200</v>
       </c>
       <c r="H60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I60" s="3">
         <v>7200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>5400</v>
       </c>
       <c r="Q60" s="3">
         <v>5400</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,55 +3127,61 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1900</v>
       </c>
       <c r="H62" s="3">
         <v>1900</v>
       </c>
       <c r="I62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J62" s="3">
         <v>2000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1900</v>
       </c>
       <c r="K62" s="3">
         <v>1900</v>
       </c>
       <c r="L62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M62" s="3">
         <v>2000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1800</v>
       </c>
       <c r="P62" s="3">
         <v>1800</v>
       </c>
       <c r="Q62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
         <v>9000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-272000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-264500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-258100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-251000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-243200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-233200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-224500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-215700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-206700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-205200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-197000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-189600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-182600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-174700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-168100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E76" s="3">
         <v>15900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-7500</v>
       </c>
       <c r="E81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3835,7 +4034,7 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -3868,13 +4067,16 @@
         <v>500</v>
       </c>
       <c r="P83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4186,7 +4407,7 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4195,25 +4416,25 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>700</v>
+      </c>
+      <c r="E94" s="3">
         <v>5900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>7600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>11700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E100" s="3">
         <v>4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>19800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>3600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>PSTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,89 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,37 +767,43 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,32 +816,32 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -838,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,32 +872,32 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>100</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>100</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -888,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F12" s="3">
         <v>5700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>5800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>8400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>7800</v>
       </c>
       <c r="K12" s="3">
         <v>7400</v>
       </c>
       <c r="L12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="M12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="N12" s="3">
         <v>7500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>5200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>5900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>5500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1177,66 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F17" s="3">
         <v>7400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>10300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>9000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>8800</v>
       </c>
       <c r="L17" s="3">
         <v>9000</v>
       </c>
       <c r="M17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="N17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="O17" s="3">
         <v>8500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>6600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>8200</v>
       </c>
       <c r="Q17" s="3">
         <v>6600</v>
       </c>
       <c r="R17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="S17" s="3">
         <v>6600</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-10300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-8800</v>
       </c>
       <c r="L18" s="3">
         <v>-9000</v>
       </c>
       <c r="M18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="O18" s="3">
         <v>-8400</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-8200</v>
       </c>
       <c r="Q18" s="3">
         <v>-6600</v>
       </c>
       <c r="R18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-6600</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-6600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,49 +1322,55 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-400</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-6000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-6700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-7300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-9600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-8200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-8300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-8500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-7700</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-6500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-6100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1475,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-7100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-10100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-7400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-7100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-10100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-8200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-6600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-10100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-7000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-6600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,99 +1994,111 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>400</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-10100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-7000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-6600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-10100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-7000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-6600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2312,122 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F41" s="3">
         <v>6800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>9500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>12300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>7300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F42" s="3">
         <v>8000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>8800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>14800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>19600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>7900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>13300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>21100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>27400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>26700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>8500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>21400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>14800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>14000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2254,44 +2440,50 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,116 +2532,134 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>14100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>48500</v>
+      </c>
+      <c r="F46" s="3">
         <v>17800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>19200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>21500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>26400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>13200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>18400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>24500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>32000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>35700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>37100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>22800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>29000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>34600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>23000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400</v>
+        <v>12100</v>
       </c>
       <c r="E47" s="3">
-        <v>400</v>
+        <v>12700</v>
       </c>
       <c r="F47" s="3">
         <v>400</v>
@@ -2482,66 +2692,78 @@
         <v>400</v>
       </c>
       <c r="P47" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q47" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F48" s="3">
         <v>4200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>7300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>8300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,34 +2924,40 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
-        <v>700</v>
-      </c>
       <c r="F52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
       </c>
       <c r="H52" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="I52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J52" s="3">
         <v>900</v>
       </c>
       <c r="K52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L52" s="3">
         <v>900</v>
@@ -2729,19 +2969,25 @@
         <v>900</v>
       </c>
       <c r="O52" s="3">
+        <v>900</v>
+      </c>
+      <c r="P52" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q52" s="3">
         <v>800</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1100</v>
       </c>
       <c r="R52" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>65500</v>
+      </c>
+      <c r="F54" s="3">
         <v>23000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>24900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>27600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>31300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>18700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>24300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>30900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>39000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>43000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>44700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>31000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>37500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>43500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>32300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,49 +3151,55 @@
         <v>1800</v>
       </c>
       <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G57" s="3">
         <v>1900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2300</v>
       </c>
       <c r="H57" s="3">
         <v>2900</v>
       </c>
       <c r="I57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,108 +3248,126 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F60" s="3">
         <v>7200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>5400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>6100</v>
       </c>
       <c r="Q60" s="3">
         <v>5400</v>
       </c>
       <c r="R60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="S60" s="3">
         <v>5400</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3139,49 +3431,55 @@
         <v>1700</v>
       </c>
       <c r="E62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2000</v>
       </c>
       <c r="K62" s="3">
         <v>1900</v>
       </c>
       <c r="L62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O62" s="3">
         <v>2000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1900</v>
       </c>
       <c r="P62" s="3">
         <v>1800</v>
       </c>
       <c r="Q62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R62" s="3">
         <v>1800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F66" s="3">
         <v>8900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-288600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-280200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-272000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-264500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-258100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-251000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-243200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-233200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-224500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-215700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-206700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-205200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-197000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-189600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-182600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-174700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-168100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F76" s="3">
         <v>14200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>15900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>17500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>21800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>15200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>21500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>28500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>33200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>37000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>24400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>30300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>35600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>25100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-10100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-7000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-6600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,22 +4421,24 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -4070,13 +4468,19 @@
         <v>500</v>
       </c>
       <c r="Q83" s="3">
+        <v>500</v>
+      </c>
+      <c r="R83" s="3">
+        <v>500</v>
+      </c>
+      <c r="S83" s="3">
         <v>600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="E89" s="3">
         <v>-6300</v>
       </c>
       <c r="F89" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-7200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-6700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-8300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-8500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-5600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-6400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-5800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,43 +4835,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4440,13 +4882,19 @@
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="F94" s="3">
         <v>700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>5900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>4700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-18500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>6800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>5300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>7600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>6200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-13800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>11700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>5700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>7000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5301,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>49500</v>
+      </c>
+      <c r="F100" s="3">
         <v>5400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>19800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>14900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>15700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-5400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>7600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>PSTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -773,11 +776,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -785,14 +788,14 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -802,25 +805,28 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -828,11 +834,11 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -840,11 +846,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -858,25 +864,28 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -884,11 +893,11 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -896,11 +905,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E12" s="3">
         <v>6200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E17" s="3">
         <v>8700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>6600</v>
       </c>
       <c r="T17" s="3">
         <v>6600</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8400</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-6600</v>
       </c>
       <c r="T18" s="3">
         <v>-6600</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-6600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7700</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2399,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E42" s="3">
         <v>33800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>37500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>27400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>26700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>21400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2446,44 +2538,47 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>1000</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,131 +2633,140 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E46" s="3">
         <v>42700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>48500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>37100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E47" s="3">
         <v>12100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12700</v>
-      </c>
-      <c r="F47" s="3">
-        <v>400</v>
       </c>
       <c r="G47" s="3">
         <v>400</v>
@@ -2698,7 +2802,7 @@
         <v>400</v>
       </c>
       <c r="R47" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2706,64 +2810,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E48" s="3">
         <v>3500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,13 +3058,13 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>700</v>
@@ -2954,13 +3073,13 @@
         <v>700</v>
       </c>
       <c r="J52" s="3">
+        <v>700</v>
+      </c>
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>900</v>
       </c>
       <c r="M52" s="3">
         <v>900</v>
@@ -2975,10 +3094,10 @@
         <v>900</v>
       </c>
       <c r="Q52" s="3">
+        <v>900</v>
+      </c>
+      <c r="R52" s="3">
         <v>800</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1100</v>
       </c>
       <c r="S52" s="3">
         <v>1100</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E54" s="3">
         <v>59000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>65500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>31300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2100</v>
       </c>
       <c r="L57" s="3">
         <v>2100</v>
       </c>
       <c r="M57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,120 +3387,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>5300</v>
       </c>
       <c r="M59" s="3">
         <v>5300</v>
       </c>
       <c r="N59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O59" s="3">
         <v>5900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>8200</v>
       </c>
       <c r="J60" s="3">
         <v>8200</v>
       </c>
       <c r="K60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="L60" s="3">
         <v>7200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>5400</v>
       </c>
       <c r="T60" s="3">
         <v>5400</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,64 +3564,70 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1900</v>
       </c>
       <c r="K62" s="3">
         <v>1900</v>
       </c>
       <c r="L62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M62" s="3">
         <v>2000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1900</v>
       </c>
       <c r="N62" s="3">
         <v>1900</v>
       </c>
       <c r="O62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P62" s="3">
         <v>2000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1900</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1800</v>
       </c>
       <c r="S62" s="3">
         <v>1800</v>
       </c>
       <c r="T62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E66" s="3">
         <v>10000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-301200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-288600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-280200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-272000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-264500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-258100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-251000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-243200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-233200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-224500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-215700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-206700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-205200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-197000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-189600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-182600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-174700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-168100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E76" s="3">
         <v>48900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>56100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,7 +4630,7 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -4441,7 +4639,7 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -4474,13 +4672,16 @@
         <v>500</v>
       </c>
       <c r="S83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4849,16 +5069,16 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4867,25 +5087,25 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E94" s="3">
         <v>4200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-41800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>11700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>7000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>49500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>19800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15700</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>PSTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -779,11 +783,11 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -791,14 +795,14 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,17 +826,17 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -837,11 +844,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -849,11 +856,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,17 +888,17 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -896,11 +906,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -908,11 +918,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E17" s="3">
         <v>13100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>6600</v>
       </c>
       <c r="U17" s="3">
         <v>6600</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-6600</v>
       </c>
       <c r="U18" s="3">
         <v>-6600</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-6600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E41" s="3">
         <v>7800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E42" s="3">
         <v>35200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>33800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>37500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>27400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>26700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>21400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2541,44 +2634,47 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>1000</v>
-      </c>
-      <c r="S43" s="3">
-        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
       <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,140 +2732,149 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E46" s="3">
         <v>45300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>48500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>35700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>37100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>23000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E47" s="3">
         <v>3200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12700</v>
-      </c>
-      <c r="G47" s="3">
-        <v>400</v>
       </c>
       <c r="H47" s="3">
         <v>400</v>
@@ -2805,7 +2910,7 @@
         <v>400</v>
       </c>
       <c r="S47" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2813,67 +2918,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3061,13 +3181,13 @@
         <v>700</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
@@ -3076,13 +3196,13 @@
         <v>700</v>
       </c>
       <c r="K52" s="3">
+        <v>700</v>
+      </c>
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>900</v>
       </c>
       <c r="N52" s="3">
         <v>900</v>
@@ -3097,10 +3217,10 @@
         <v>900</v>
       </c>
       <c r="R52" s="3">
+        <v>900</v>
+      </c>
+      <c r="S52" s="3">
         <v>800</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1100</v>
       </c>
       <c r="T52" s="3">
         <v>1100</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E54" s="3">
         <v>52300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>59000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>65500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2100</v>
       </c>
       <c r="M57" s="3">
         <v>2100</v>
       </c>
       <c r="N57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,126 +3524,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E59" s="3">
         <v>7100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>5300</v>
       </c>
       <c r="N59" s="3">
         <v>5300</v>
       </c>
       <c r="O59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P59" s="3">
         <v>5900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E60" s="3">
         <v>10000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>8200</v>
       </c>
       <c r="K60" s="3">
         <v>8200</v>
       </c>
       <c r="L60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="M60" s="3">
         <v>7200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6100</v>
-      </c>
-      <c r="T60" s="3">
-        <v>5400</v>
       </c>
       <c r="U60" s="3">
         <v>5400</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3576,58 +3722,61 @@
         <v>1100</v>
       </c>
       <c r="E62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1900</v>
       </c>
       <c r="L62" s="3">
         <v>1900</v>
       </c>
       <c r="M62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N62" s="3">
         <v>2000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1900</v>
       </c>
       <c r="O62" s="3">
         <v>1900</v>
       </c>
       <c r="P62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1900</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1800</v>
       </c>
       <c r="T62" s="3">
         <v>1800</v>
       </c>
       <c r="U62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-315500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-301200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-288600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-280200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-272000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-264500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-258100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-251000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-243200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-233200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-224500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-215700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-206700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-205200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-197000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-189600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-182600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-174700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-168100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E76" s="3">
         <v>41100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>56100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>37000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4633,7 +4832,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -4642,7 +4841,7 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -4675,13 +4874,16 @@
         <v>500</v>
       </c>
       <c r="T83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5072,16 +5293,16 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5090,25 +5311,25 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E94" s="3">
         <v>7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>11700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>7000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>49500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>19800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15700</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>PSTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,15 +772,15 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -786,37 +794,43 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +843,8 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -841,32 +855,32 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,8 +911,8 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -903,32 +923,32 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>100</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>100</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F12" s="3">
         <v>7800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>8000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>5600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>6300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>7800</v>
       </c>
       <c r="O12" s="3">
         <v>7400</v>
       </c>
       <c r="P12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="R12" s="3">
         <v>7500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>6300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>5200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>5900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>6600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>5500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1284,78 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>9000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>8800</v>
       </c>
       <c r="P17" s="3">
         <v>9000</v>
       </c>
       <c r="Q17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="R17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="S17" s="3">
         <v>8500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>7400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>6600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>8200</v>
       </c>
       <c r="U17" s="3">
         <v>6600</v>
       </c>
       <c r="V17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="W17" s="3">
         <v>6600</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-13100</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-10300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-8800</v>
       </c>
       <c r="P18" s="3">
         <v>-9000</v>
       </c>
       <c r="Q18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="S18" s="3">
         <v>-8400</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-8200</v>
       </c>
       <c r="U18" s="3">
         <v>-6600</v>
       </c>
       <c r="V18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-6600</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-6600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,61 +1457,67 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-400</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-12200</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-7800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-7100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-7300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-9600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-8200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-8300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-8500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-7700</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-6500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-7300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-6100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1646,82 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-12600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-8500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-8100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-8800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-9000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-8200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-7400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-7000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-7900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-6600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-14300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-12600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-8500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-7100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-8700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-8800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-9000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-8200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-7000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-7900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-6600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-14300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-12600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-8500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-8800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-9000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-8200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-7000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-7900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-6600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,123 +2273,135 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>400</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>400</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-14300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-12600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-8500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-8800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-9000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-8200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-7400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-7000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-7900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-6600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-14300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-12600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-8500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-8800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-9000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-8200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-7400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-7000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-7900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-6600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,194 +2659,214 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F41" s="3">
         <v>12300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>9500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>8600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>12300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>7300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F42" s="3">
         <v>35100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>35200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>33800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>37500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>8000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>8800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>14800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>19600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>7900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>13300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>21100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>27400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>26700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>8500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>21400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>14800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>14000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,152 +2927,170 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>14100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>67400</v>
+      </c>
+      <c r="F46" s="3">
         <v>49800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>45300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>42700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>48500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>17800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>19200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>21500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>26400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>13200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>18400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>24500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>32000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>35700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>37100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>22800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>29000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>34600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>23000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F47" s="3">
         <v>25900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>12100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>12700</v>
-      </c>
-      <c r="H47" s="3">
-        <v>400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>400</v>
       </c>
       <c r="J47" s="3">
         <v>400</v>
@@ -2913,78 +3123,90 @@
         <v>400</v>
       </c>
       <c r="T47" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="U47" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>7300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>7800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>8300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3184,31 +3424,31 @@
         <v>700</v>
       </c>
       <c r="G52" s="3">
+        <v>700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>700</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>700</v>
       </c>
       <c r="K52" s="3">
         <v>700</v>
       </c>
       <c r="L52" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N52" s="3">
         <v>900</v>
       </c>
       <c r="O52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P52" s="3">
         <v>900</v>
@@ -3220,19 +3460,25 @@
         <v>900</v>
       </c>
       <c r="S52" s="3">
+        <v>900</v>
+      </c>
+      <c r="T52" s="3">
+        <v>900</v>
+      </c>
+      <c r="U52" s="3">
         <v>800</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1100</v>
-      </c>
-      <c r="U52" s="3">
-        <v>1100</v>
       </c>
       <c r="V52" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X52" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>93500</v>
+      </c>
+      <c r="F54" s="3">
         <v>79200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>52300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>59000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>65500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>23000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>24900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>27600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>31300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>18700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>24300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>30900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>39000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>43000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>44700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>31000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>37500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>43500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>32300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3663,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2000</v>
       </c>
       <c r="H57" s="3">
         <v>1800</v>
       </c>
       <c r="I57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2300</v>
       </c>
       <c r="L57" s="3">
         <v>2900</v>
       </c>
       <c r="M57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,140 +3795,158 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F59" s="3">
         <v>7800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F60" s="3">
         <v>9900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>5400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>6100</v>
       </c>
       <c r="U60" s="3">
         <v>5400</v>
       </c>
       <c r="V60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="W60" s="3">
         <v>5400</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>23900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3713,70 +3999,82 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1400</v>
       </c>
       <c r="H62" s="3">
         <v>1700</v>
       </c>
       <c r="I62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2000</v>
       </c>
       <c r="O62" s="3">
         <v>1900</v>
       </c>
       <c r="P62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S62" s="3">
         <v>2000</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1800</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1900</v>
       </c>
       <c r="T62" s="3">
         <v>1800</v>
       </c>
       <c r="U62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V62" s="3">
         <v>1800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F66" s="3">
         <v>11000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-341500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-330000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-315500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-301200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-288600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-280200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-272000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-264500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-258100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-251000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-243200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-233200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-224500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-215700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-206700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-205200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-197000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-189600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-182600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-174700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-168100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>57200</v>
+      </c>
+      <c r="F76" s="3">
         <v>68100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>41100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>48900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>56100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>14200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>15900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>17500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>21800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>15200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>21500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>28500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>33200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>37000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>24400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>30300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>35600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>25100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-14300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-12600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-8500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-8800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-9000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-8200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-7400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-7000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-7900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-6600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4835,19 +5233,19 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
@@ -4877,13 +5275,19 @@
         <v>500</v>
       </c>
       <c r="U83" s="3">
+        <v>500</v>
+      </c>
+      <c r="V83" s="3">
+        <v>500</v>
+      </c>
+      <c r="W83" s="3">
         <v>600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-6100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-6500</v>
       </c>
       <c r="I89" s="3">
         <v>-6300</v>
       </c>
       <c r="J89" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-7200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-6000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-8300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-8500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-5800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-5200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-6400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-5500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-5800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,16 +5718,18 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -5296,37 +5738,37 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5335,13 +5777,19 @@
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-23800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>7600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>4200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-41800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>5900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>4700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-18500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>6800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>5300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>7600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>6200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-13800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>11700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>5700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-12200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>7000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,93 +6284,105 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F100" s="3">
         <v>35700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>49500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>5400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>19800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>14900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>15700</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5922,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F102" s="3">
         <v>4600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>7600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>PSTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,115 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -778,12 +781,12 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -800,11 +803,11 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -812,14 +815,14 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,17 +855,17 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -867,11 +873,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -879,11 +885,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -917,17 +926,17 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -935,11 +944,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -947,11 +956,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E12" s="3">
         <v>6400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E17" s="3">
         <v>11400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>6600</v>
       </c>
       <c r="X17" s="3">
         <v>6600</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13100</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8400</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8200</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-6600</v>
       </c>
       <c r="X18" s="3">
         <v>-6600</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-6600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12200</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7700</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-6500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-6100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-6600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-6600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2746,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E41" s="3">
         <v>14600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E42" s="3">
         <v>46100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>33700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>35100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>35200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>33800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>37500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>21100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>27400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>26700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>21400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2823,50 +2915,53 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>1000</v>
-      </c>
-      <c r="V43" s="3">
-        <v>300</v>
       </c>
       <c r="W43" s="3">
         <v>300</v>
       </c>
       <c r="X43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y43" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,167 +3028,176 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>14100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E46" s="3">
         <v>62800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>67400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>49800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>45300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>42700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>48500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>32000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>35700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>37100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>22800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>29000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>34600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>23000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E47" s="3">
         <v>18500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>25900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12700</v>
-      </c>
-      <c r="J47" s="3">
-        <v>400</v>
       </c>
       <c r="K47" s="3">
         <v>400</v>
@@ -3129,7 +3233,7 @@
         <v>400</v>
       </c>
       <c r="V47" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3137,76 +3241,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3430,13 +3549,13 @@
         <v>700</v>
       </c>
       <c r="I52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
       </c>
       <c r="K52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>700</v>
@@ -3445,13 +3564,13 @@
         <v>700</v>
       </c>
       <c r="N52" s="3">
+        <v>700</v>
+      </c>
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>800</v>
-      </c>
-      <c r="P52" s="3">
-        <v>900</v>
       </c>
       <c r="Q52" s="3">
         <v>900</v>
@@ -3466,10 +3585,10 @@
         <v>900</v>
       </c>
       <c r="U52" s="3">
+        <v>900</v>
+      </c>
+      <c r="V52" s="3">
         <v>800</v>
-      </c>
-      <c r="V52" s="3">
-        <v>1100</v>
       </c>
       <c r="W52" s="3">
         <v>1100</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E54" s="3">
         <v>83700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>79200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>52300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>59000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>65500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>44700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>43500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>32300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2100</v>
       </c>
       <c r="P57" s="3">
         <v>2100</v>
       </c>
       <c r="Q57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,156 +3934,165 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8100</v>
+        <v>5500</v>
       </c>
       <c r="E59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F59" s="3">
         <v>9000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>5300</v>
       </c>
       <c r="Q59" s="3">
         <v>5300</v>
       </c>
       <c r="R59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S59" s="3">
         <v>5900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E60" s="3">
         <v>10400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>8200</v>
       </c>
       <c r="N60" s="3">
         <v>8200</v>
       </c>
       <c r="O60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="P60" s="3">
         <v>7200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6100</v>
-      </c>
-      <c r="W60" s="3">
-        <v>5400</v>
       </c>
       <c r="X60" s="3">
         <v>5400</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E61" s="3">
         <v>23400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4005,76 +4147,82 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>8600</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
       </c>
       <c r="F62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G62" s="3">
         <v>1100</v>
       </c>
       <c r="H62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1900</v>
       </c>
       <c r="O62" s="3">
         <v>1900</v>
       </c>
       <c r="P62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1900</v>
       </c>
       <c r="R62" s="3">
         <v>1900</v>
       </c>
       <c r="S62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T62" s="3">
         <v>2000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1900</v>
-      </c>
-      <c r="V62" s="3">
-        <v>1800</v>
       </c>
       <c r="W62" s="3">
         <v>1800</v>
       </c>
       <c r="X62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E66" s="3">
         <v>34800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-352400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-341500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-330000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-315500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-301200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-288600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-280200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-272000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-264500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-258100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-251000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-243200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-233200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-224500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-215700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-206700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-205200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-197000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-189600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-182600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-174700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-168100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E76" s="3">
         <v>48900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>57200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>68100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>56100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>37000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>30300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>35600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>25100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5239,7 +5437,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
@@ -5248,7 +5446,7 @@
         <v>400</v>
       </c>
       <c r="L83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
@@ -5281,13 +5479,16 @@
         <v>500</v>
       </c>
       <c r="W83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5732,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -5744,16 +5964,16 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5762,25 +5982,25 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-41800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>6200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>11700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>5700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-12200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>7000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,75 +6544,78 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>24400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>35700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>49500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>19800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>14900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>15700</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
@@ -6384,8 +6632,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>PSTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,122 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -784,11 +788,11 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -806,11 +810,11 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -818,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,17 +865,17 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -876,11 +883,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -888,11 +895,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,17 +939,17 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -947,24 +957,24 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
         <v>6500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,79 +1338,83 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>10800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8200</v>
-      </c>
-      <c r="X17" s="3">
-        <v>6600</v>
       </c>
       <c r="Y17" s="3">
         <v>6600</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1394,68 +1424,71 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-14600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8400</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-6600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-8200</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-6600</v>
       </c>
       <c r="Y18" s="3">
         <v>-6600</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-6600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1492,68 +1526,71 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
       </c>
       <c r="P20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1563,68 +1600,71 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-14200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-7800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-6500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,79 +1734,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2344,139 +2414,145 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
       </c>
       <c r="P32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E41" s="3">
         <v>18700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E42" s="3">
         <v>39500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>46100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>33700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>35100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>35200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>33800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>37500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>21100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>27400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>26700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>21400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2918,50 +3011,53 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>1000</v>
-      </c>
-      <c r="W43" s="3">
-        <v>300</v>
       </c>
       <c r="X43" s="3">
         <v>300</v>
       </c>
       <c r="Y43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z43" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,176 +3127,185 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>14100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E46" s="3">
         <v>60200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>62800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>67400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>49800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>45300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>42700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>48500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>32000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>35700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>37100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>22800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>29000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>34600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>23000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E47" s="3">
         <v>11000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>23300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>12100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>12700</v>
-      </c>
-      <c r="K47" s="3">
-        <v>400</v>
       </c>
       <c r="L47" s="3">
         <v>400</v>
@@ -3236,7 +3341,7 @@
         <v>400</v>
       </c>
       <c r="W47" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3244,79 +3349,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E48" s="3">
         <v>9300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,13 +3645,16 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
         <v>700</v>
@@ -3552,13 +3672,13 @@
         <v>700</v>
       </c>
       <c r="J52" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
       </c>
       <c r="L52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M52" s="3">
         <v>700</v>
@@ -3567,13 +3687,13 @@
         <v>700</v>
       </c>
       <c r="O52" s="3">
+        <v>700</v>
+      </c>
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>900</v>
       </c>
       <c r="R52" s="3">
         <v>900</v>
@@ -3588,10 +3708,10 @@
         <v>900</v>
       </c>
       <c r="V52" s="3">
+        <v>900</v>
+      </c>
+      <c r="W52" s="3">
         <v>800</v>
-      </c>
-      <c r="W52" s="3">
-        <v>1100</v>
       </c>
       <c r="X52" s="3">
         <v>1100</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E54" s="3">
         <v>81200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>83700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>93500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>79200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>52300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>59000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>65500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>44700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>31000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>43500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>32300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>40200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2100</v>
       </c>
       <c r="Q57" s="3">
         <v>2100</v>
       </c>
       <c r="R57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S57" s="3">
         <v>3300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,165 +4071,174 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>5300</v>
       </c>
       <c r="R59" s="3">
         <v>5300</v>
       </c>
       <c r="S59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T59" s="3">
         <v>5900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
         <v>9600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>8200</v>
       </c>
       <c r="O60" s="3">
         <v>8200</v>
       </c>
       <c r="P60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>7200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6100</v>
-      </c>
-      <c r="X60" s="3">
-        <v>5400</v>
       </c>
       <c r="Y60" s="3">
         <v>5400</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E61" s="3">
         <v>23200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4150,79 +4293,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E62" s="3">
         <v>8600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1000</v>
       </c>
       <c r="F62" s="3">
         <v>1000</v>
       </c>
       <c r="G62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H62" s="3">
         <v>1100</v>
       </c>
       <c r="I62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1900</v>
       </c>
       <c r="P62" s="3">
         <v>1900</v>
       </c>
       <c r="Q62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R62" s="3">
         <v>2000</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1900</v>
       </c>
       <c r="S62" s="3">
         <v>1900</v>
       </c>
       <c r="T62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U62" s="3">
         <v>2000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1900</v>
-      </c>
-      <c r="W62" s="3">
-        <v>1800</v>
       </c>
       <c r="X62" s="3">
         <v>1800</v>
       </c>
       <c r="Y62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z62" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E66" s="3">
         <v>41300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-362300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-352400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-341500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-330000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-315500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-301200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-288600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-280200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-272000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-264500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-258100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-251000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-243200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-233200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-224500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-215700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-206700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-205200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-197000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-189600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-182600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-174700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-168100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E76" s="3">
         <v>39800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>57200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>68100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>56100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>33200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>37000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>30300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>35600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>25100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5440,7 +5639,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -5449,7 +5648,7 @@
         <v>400</v>
       </c>
       <c r="M83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
@@ -5482,13 +5681,16 @@
         <v>500</v>
       </c>
       <c r="X83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y83" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5955,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -5967,16 +6188,16 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5985,25 +6206,25 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E94" s="3">
         <v>14300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-41800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>6200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-13800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>11700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>5700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>7000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,91 +6778,97 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>24400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>35700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>49500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>19800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>14900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>15700</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6635,8 +6884,8 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
         <v>4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>
